--- a/biology/Botanique/Didymoglossum_godmanii/Didymoglossum_godmanii.xlsx
+++ b/biology/Botanique/Didymoglossum_godmanii/Didymoglossum_godmanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum godmanii est une fougère de la famille des Hyménophyllacées. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce dispose des caractéristiques suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce dispose des caractéristiques suivantes :
 le rhizome est rampant et filiforme de moins de 0,1 mm de diamètre ; il est très abondamment couvert de poils de couleur brun-rougeâtre ;
 les frondes très petites - de un à moins de trois centimètres de long et de large - ont un pétiole court et un aspect cordiforme ou circulaire ;
 elles portent de fausses nervures parallèles aux vraies nervures avec des fausses nervures submarginales, caractéristiques du sous-genre Microgonium ;
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, épiphyte des troncs d'arbres des forêts tropicales humides, est présente en Amérique centrale et aux Caraïbes : Costa-Rica, Cuba, Guatemala, Honduras, Mexique, Panama.
 </t>
@@ -579,15 +595,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1866, John Gilbert Baker publie les notes de William Jackson Hooker décrivant cette espèce à partir d'un exemplaire collecté en 1862 au Guatemala par deux collecteurs britanniques, Osbert Salvin et Frederick Ducane Godman (1834 - 1919) ; c'est à ce dernier qu'il dédie l'espèce qu'il place dans le genre Trichomanes : Trichomanes godmanii[2].
-En 1906, Carl Frederik Albert Christensen place l'espèce dans le sous-genre Hemiphlebium[3].
-Cette espère est considérée à tort comme synonyme de Didymoglossum petersii par Edwin Bingham Copeland (elle devrait se trouver dans le genre Microgonium selon sa révision de la famille)[4].
-En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes sous-genre Didymoglossum, section Microgonium[5].
-En 1977, Rodolfo Emilio Giuseppe Pichi Sermolli la place dans le genre Microgonium en créant : Microgonium godmanii (Hook. ex Baker) Pic.Serm.[6].
-En 1983, C. Sánchez-Pinto redécrit l'espèce dans le genre Microgonium en créant ainsi un homonyme[7]
-Enfin, quand en 2006, Atsushi Ebihara et Jean-Yves Dubuisson la reversent dans le genre Didymoglossum, sous-genre Microgonium[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1866, John Gilbert Baker publie les notes de William Jackson Hooker décrivant cette espèce à partir d'un exemplaire collecté en 1862 au Guatemala par deux collecteurs britanniques, Osbert Salvin et Frederick Ducane Godman (1834 - 1919) ; c'est à ce dernier qu'il dédie l'espèce qu'il place dans le genre Trichomanes : Trichomanes godmanii.
+En 1906, Carl Frederik Albert Christensen place l'espèce dans le sous-genre Hemiphlebium.
+Cette espère est considérée à tort comme synonyme de Didymoglossum petersii par Edwin Bingham Copeland (elle devrait se trouver dans le genre Microgonium selon sa révision de la famille).
+En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes sous-genre Didymoglossum, section Microgonium.
+En 1977, Rodolfo Emilio Giuseppe Pichi Sermolli la place dans le genre Microgonium en créant : Microgonium godmanii (Hook. ex Baker) Pic.Serm..
+En 1983, C. Sánchez-Pinto redécrit l'espèce dans le genre Microgonium en créant ainsi un homonyme
+Enfin, quand en 2006, Atsushi Ebihara et Jean-Yves Dubuisson la reversent dans le genre Didymoglossum, sous-genre Microgonium.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'espèce Didymoglossum godmanii est classée dans le sous-genre Microgonium.
 Cette espèce compte donc deux synonymes, résultant des remaniements taxinomiques : 
